--- a/result/housing/after/mapping_result.xlsx
+++ b/result/housing/after/mapping_result.xlsx
@@ -1,37 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\ts_fuzzy\result\housing\after\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>bedrooms</t>
+  </si>
+  <si>
+    <t>bathrooms</t>
+  </si>
+  <si>
+    <t>sqft_living</t>
+  </si>
+  <si>
+    <t>sqft_lot</t>
+  </si>
+  <si>
+    <t>floors</t>
+  </si>
+  <si>
+    <t>sqft_above</t>
+  </si>
+  <si>
+    <t>sqft_basement</t>
+  </si>
+  <si>
+    <t>yr_built</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +89,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,294 +413,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bathrooms</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sqft_living</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sqft_lot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>floors</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sqft_above</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sqft_basement</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>yr_built</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>161684811457.2572</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>455652598797.3299</v>
       </c>
-      <c r="E2" t="n">
-        <v>369769024298.0536</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>369769024298.05359</v>
+      </c>
+      <c r="F2">
         <v>176168259378.3291</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>110714358712.9897</v>
       </c>
-      <c r="H2" t="n">
-        <v>162208428688.1284</v>
-      </c>
-      <c r="I2" t="n">
-        <v>250272358791.4976</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="H2">
+        <v>162208428688.12839</v>
+      </c>
+      <c r="I2">
+        <v>250272358791.49759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>159386173685.7393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>222308356537.8127</v>
-      </c>
-      <c r="E3" t="n">
-        <v>145203477171.6447</v>
-      </c>
-      <c r="F3" t="n">
-        <v>149514477002.2188</v>
-      </c>
-      <c r="G3" t="n">
-        <v>289249808285.3558</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B3">
+        <v>159386173685.73929</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>222308356537.81271</v>
+      </c>
+      <c r="E3">
+        <v>145203477171.64471</v>
+      </c>
+      <c r="F3">
+        <v>149514477002.21881</v>
+      </c>
+      <c r="G3">
+        <v>289249808285.35577</v>
+      </c>
+      <c r="H3">
         <v>168541788549.0658</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>145020545298.3165</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>138129543532.809</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>138129543532.80899</v>
+      </c>
+      <c r="C4">
         <v>130233661531.0278</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>149893723722.0515</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>149893723722.05151</v>
+      </c>
+      <c r="F4">
         <v>135479936788.259</v>
       </c>
-      <c r="G4" t="n">
-        <v>168981908800.4478</v>
-      </c>
-      <c r="H4" t="n">
-        <v>197331208301.6396</v>
-      </c>
-      <c r="I4" t="n">
-        <v>150745591821.4405</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="G4">
+        <v>168981908800.44781</v>
+      </c>
+      <c r="H4">
+        <v>197331208301.63959</v>
+      </c>
+      <c r="I4">
+        <v>150745591821.44049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>849331089013.1279</v>
-      </c>
-      <c r="C5" t="n">
-        <v>854009676319.4966</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1863486608853.765</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>769946835710.4056</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1696587020463.129</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2753375341568.06</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="B5">
+        <v>849331089013.12793</v>
+      </c>
+      <c r="C5">
+        <v>854009676319.49658</v>
+      </c>
+      <c r="D5">
+        <v>1863486608853.7649</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>769946835710.40564</v>
+      </c>
+      <c r="G5">
+        <v>1696587020463.1289</v>
+      </c>
+      <c r="H5">
+        <v>2753375341568.0601</v>
+      </c>
+      <c r="I5">
         <v>1434989756331.949</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>276992936822.9584</v>
-      </c>
-      <c r="C6" t="n">
-        <v>231664830552.8004</v>
-      </c>
-      <c r="D6" t="n">
-        <v>171513747618.7632</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B6">
+        <v>276992936822.95837</v>
+      </c>
+      <c r="C6">
+        <v>231664830552.80042</v>
+      </c>
+      <c r="D6">
+        <v>171513747618.76321</v>
+      </c>
+      <c r="E6">
         <v>204848091805.5531</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>278547792669.588</v>
-      </c>
-      <c r="H6" t="n">
-        <v>190151289062.557</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>278547792669.58801</v>
+      </c>
+      <c r="H6">
+        <v>190151289062.55701</v>
+      </c>
+      <c r="I6">
         <v>195990175310.9433</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>139080094087.0728</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>139080094087.07281</v>
+      </c>
+      <c r="C7">
         <v>138573304380.0589</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>134184874106.6248</v>
       </c>
-      <c r="E7" t="n">
-        <v>147677656780.8502</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>147677656780.85019</v>
+      </c>
+      <c r="F7">
         <v>134166492943.1705</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>297980514460.2996</v>
-      </c>
-      <c r="I7" t="n">
-        <v>145368706872.3435</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>297980514460.29962</v>
+      </c>
+      <c r="I7">
+        <v>145368706872.34351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>159071071455.8698</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>159071071455.86981</v>
+      </c>
+      <c r="C8">
         <v>151157271936.923</v>
       </c>
-      <c r="D8" t="n">
-        <v>150224306991.0801</v>
-      </c>
-      <c r="E8" t="n">
-        <v>344628768802.1525</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="D8">
+        <v>150224306991.08011</v>
+      </c>
+      <c r="E8">
+        <v>344628768802.15253</v>
+      </c>
+      <c r="F8">
         <v>174902738628.3251</v>
       </c>
-      <c r="G8" t="n">
-        <v>147457184809.2423</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>139696481304.3416</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="G8">
+        <v>147457184809.24231</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>139696481304.34161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>103476147437.7411</v>
       </c>
-      <c r="C9" t="n">
-        <v>63771031919.32188</v>
-      </c>
-      <c r="D9" t="n">
-        <v>115376311667.344</v>
-      </c>
-      <c r="E9" t="n">
-        <v>113160180311.8682</v>
-      </c>
-      <c r="F9" t="n">
-        <v>97048744501.72391</v>
-      </c>
-      <c r="G9" t="n">
-        <v>74904603204.0217</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="C9">
+        <v>63771031919.321877</v>
+      </c>
+      <c r="D9">
+        <v>115376311667.34399</v>
+      </c>
+      <c r="E9">
+        <v>113160180311.86819</v>
+      </c>
+      <c r="F9">
+        <v>97048744501.723907</v>
+      </c>
+      <c r="G9">
+        <v>74904603204.021698</v>
+      </c>
+      <c r="H9">
         <v>89478512236.80751</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>